--- a/biology/Histoire de la zoologie et de la botanique/Julius_Lederer/Julius_Lederer.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Julius_Lederer/Julius_Lederer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Julius Lederer est un entomologiste autrichien, né le 24 juin 1821 à Vienne et mort le 30 avril 1870 dans cette même ville.
 Entomologiste spécialisé dans les lépidoptères, il fait de nombreux voyages : en Andalousie en 1849, en Carinthie avec Johann von Hornig (1819-1886) en 1853, à Smyrne en 1864, en Magnésie en 1865, à Amasya en Turquie en 1866, à Mersin et dans les Monts Taurus en 1867, au Liban en 1868, dans les Balkans en 1870, mais il doit interrompre ce dernier voyage souffrant des poumons, il rentre alors à Vienne et meurt peu après.
